--- a/3年実験/D.光センサの使い方/images/PD.xlsx
+++ b/3年実験/D.光センサの使い方/images/PD.xlsx
@@ -5,28 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayumu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/len/Documents/GitHub/report/3年実験/D.光センサの使い方/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{776BFBBE-F0E8-6641-B6BE-DF79C9C85035}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277AAAC1-FA1E-B647-BCF8-95F0EB8CA57C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{32407C72-3AB5-6940-B356-9E3A496A3487}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{32407C72-3AB5-6940-B356-9E3A496A3487}"/>
   </bookViews>
   <sheets>
     <sheet name="短絡特性" sheetId="1" r:id="rId1"/>
     <sheet name="開放特性" sheetId="2" r:id="rId2"/>
     <sheet name="あ" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">開放特性!$B$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">開放特性!$B$3:$B$18</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">開放特性!$C$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">開放特性!$C$3:$C$18</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">開放特性!$B$2</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">開放特性!$B$3:$B$18</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">開放特性!$C$2</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">開放特性!$C$3:$C$18</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -82,7 +72,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
       </rPr>
       <t>S</t>
     </r>
@@ -91,7 +80,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
       </rPr>
       <t>[μA]</t>
     </r>
@@ -107,7 +95,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
       </rPr>
       <t>F</t>
     </r>
@@ -133,7 +120,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
       </rPr>
       <t>0</t>
     </r>
@@ -187,13 +173,11 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック (本文)"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック (本文)"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
@@ -208,7 +192,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック (本文)"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -277,39 +260,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8106492091946717E-2"/>
+          <c:y val="0.10538696707855338"/>
+          <c:w val="0.7664936803648823"/>
+          <c:h val="0.79716791019100142"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -330,7 +293,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -341,12 +304,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -488,6 +449,8 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -505,6 +468,99 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>F</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>[mA](log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.93820486055957697"/>
+              <c:y val="0.96203485800230026"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -527,12 +583,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -568,6 +621,99 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>S</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>[μA](log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="1.8421854571549342E-3"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -590,12 +736,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -612,7 +755,11 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -633,12 +780,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -675,39 +817,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8106492091946717E-2"/>
+          <c:y val="0.10538696707855338"/>
+          <c:w val="0.73911615875104952"/>
+          <c:h val="0.79716791019100142"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -728,7 +850,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -739,12 +861,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -866,7 +986,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-753C-C149-9370-D0D628517AEA}"/>
+              <c16:uniqueId val="{00000000-749D-B245-A2D7-D5CC54AC7012}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -878,14 +998,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="127453343"/>
-        <c:axId val="160236223"/>
+        <c:axId val="126210543"/>
+        <c:axId val="129958687"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="127453343"/>
+        <c:axId val="126210543"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -903,6 +1025,99 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>F</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>[mA](log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.93820486055957697"/>
+              <c:y val="0.96203485800230026"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -925,12 +1140,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -940,14 +1152,16 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160236223"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="129958687"/>
+        <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160236223"/>
+        <c:axId val="129958687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.45"/>
+          <c:min val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -965,6 +1179,99 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>O</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>[V](log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="1.8421854571549342E-3"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -987,12 +1294,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1002,14 +1306,19 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127453343"/>
+        <c:crossAx val="126210543"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1030,12 +1339,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2215,27 +2519,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>222250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
+        <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7879AE2-A38C-A845-824D-B9C81C107251}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BC39B3F-A785-D74E-AE01-9D12224DE50A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2551,8 +2857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8999FC0-5143-CA4C-B034-7AA1D5B34F9E}">
   <dimension ref="B2:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
